--- a/EVALUACIÓN/GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN/OPTUNA SVM/EDAD_prediccion..xlsx
+++ b/EVALUACIÓN/GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN/OPTUNA SVM/EDAD_prediccion..xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\GRAFICOS DE BARRAS VARIABLES PREDICCION\OPTUNA SVM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\MINERIA DE DATOS ASESINATOS ZONA 8 DEL ECUADOR\EVALUACIÓN\GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN\OPTUNA SVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69844FDD-5240-4021-BA99-6C68747A9353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F4E72C-0DA6-432D-8846-1ECA72EB6D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -691,16 +691,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1395</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>250</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1742,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1767,7 +1767,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1395</v>
+        <v>1300</v>
       </c>
       <c r="C2" s="2">
         <v>0.59</v>
@@ -1778,7 +1778,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="C3" s="2">
         <v>0.189</v>
@@ -1789,7 +1789,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="C4" s="2">
         <v>0.13800000000000001</v>
@@ -1800,7 +1800,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="C5" s="2">
         <v>8.3000000000000004E-2</v>
